--- a/logs/oei_100_req_v1.xlsx
+++ b/logs/oei_100_req_v1.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="600" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="requestData" sheetId="1" r:id="rId1"/>
     <sheet name="callbackdata_1" sheetId="2" r:id="rId2"/>
     <sheet name="exp" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="110">
   <si>
     <t>0x0950126fc3ce507cab76f63d1b0036387b4761a568b65498ea9f622317fff36e</t>
   </si>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t xml:space="preserve">總完成時間(100筆) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均回應時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +701,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="4" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -2420,8 +2424,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1"/>
+    <col min="2" max="2" width="28.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3533,23 +3537,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1"/>
+    <col min="3" max="4" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -3577,8 +3581,11 @@
       <c r="K1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3610,8 +3617,12 @@
         <f>I2-J2</f>
         <v>7028</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M2" s="1">
+        <f>AVERAGE(E:E)</f>
+        <v>3948.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3632,7 +3643,7 @@
         <v>1571039389282</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3653,7 +3664,7 @@
         <v>1571039389309</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3674,7 +3685,7 @@
         <v>1571039389460</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3695,7 +3706,7 @@
         <v>1571039389489</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3716,7 +3727,7 @@
         <v>1571039389512</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3737,7 +3748,7 @@
         <v>1571039389536</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3758,7 +3769,7 @@
         <v>1571039389559</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3779,7 +3790,7 @@
         <v>1571039389589</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -3800,7 +3811,7 @@
         <v>1571039389609</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3821,7 +3832,7 @@
         <v>1571039389643</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3842,7 +3853,7 @@
         <v>1571039389669</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>1571039389692</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -3884,7 +3895,7 @@
         <v>1571039389714</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
